--- a/Modelos em Python/erros_todos.xlsx
+++ b/Modelos em Python/erros_todos.xlsx
@@ -1309,13 +1309,13 @@
         </is>
       </c>
       <c r="C34" t="n">
-        <v>16.64263268574139</v>
+        <v>16.64384955730806</v>
       </c>
       <c r="D34" t="n">
-        <v>0.5974100783192956</v>
+        <v>0.5974621839563153</v>
       </c>
       <c r="E34" t="n">
-        <v>0.1894982639580967</v>
+        <v>0.1895193421248145</v>
       </c>
       <c r="F34" t="inlineStr">
         <is>
@@ -1335,13 +1335,13 @@
         </is>
       </c>
       <c r="C35" t="n">
-        <v>18.18186832978838</v>
+        <v>18.18173315053408</v>
       </c>
       <c r="D35" t="n">
-        <v>0.6365760815285616</v>
+        <v>0.6365849313358724</v>
       </c>
       <c r="E35" t="n">
-        <v>0.2047633264504809</v>
+        <v>0.2047713450640102</v>
       </c>
       <c r="F35" t="inlineStr">
         <is>
@@ -1361,13 +1361,13 @@
         </is>
       </c>
       <c r="C36" t="n">
-        <v>18.37617211547587</v>
+        <v>18.37523045863365</v>
       </c>
       <c r="D36" t="n">
-        <v>0.6386773642034257</v>
+        <v>0.6386618512095427</v>
       </c>
       <c r="E36" t="n">
-        <v>0.2064107633488895</v>
+        <v>0.2064106047387013</v>
       </c>
       <c r="F36" t="inlineStr">
         <is>
@@ -1387,13 +1387,13 @@
         </is>
       </c>
       <c r="C37" t="n">
-        <v>20.7033738477621</v>
+        <v>20.70356701213879</v>
       </c>
       <c r="D37" t="n">
-        <v>0.7121072243191627</v>
+        <v>0.7121208241911026</v>
       </c>
       <c r="E37" t="n">
-        <v>0.2311671834037106</v>
+        <v>0.231180506135086</v>
       </c>
       <c r="F37" t="inlineStr">
         <is>
@@ -2557,13 +2557,13 @@
         </is>
       </c>
       <c r="C82" t="n">
-        <v>20.99476293929997</v>
+        <v>21.01895841504065</v>
       </c>
       <c r="D82" t="n">
-        <v>0.7781877739008637</v>
+        <v>0.779265491467886</v>
       </c>
       <c r="E82" t="n">
-        <v>0.2762270106607257</v>
+        <v>0.2764550746538694</v>
       </c>
       <c r="F82" t="inlineStr">
         <is>
@@ -2583,13 +2583,13 @@
         </is>
       </c>
       <c r="C83" t="n">
-        <v>23.68059471514381</v>
+        <v>23.70400312913826</v>
       </c>
       <c r="D83" t="n">
-        <v>0.8638404153612619</v>
+        <v>0.8648891305145239</v>
       </c>
       <c r="E83" t="n">
-        <v>0.3111230178306882</v>
+        <v>0.311351899079466</v>
       </c>
       <c r="F83" t="inlineStr">
         <is>
@@ -2609,13 +2609,13 @@
         </is>
       </c>
       <c r="C84" t="n">
-        <v>24.22003017046537</v>
+        <v>24.2430519551496</v>
       </c>
       <c r="D84" t="n">
-        <v>0.8799320271302988</v>
+        <v>0.8809650223812029</v>
       </c>
       <c r="E84" t="n">
-        <v>0.3186681817711585</v>
+        <v>0.31889419824497</v>
       </c>
       <c r="F84" t="inlineStr">
         <is>
@@ -2635,13 +2635,13 @@
         </is>
       </c>
       <c r="C85" t="n">
-        <v>27.27883236618172</v>
+        <v>27.30210055318548</v>
       </c>
       <c r="D85" t="n">
-        <v>0.9830352957035049</v>
+        <v>0.9840847356805736</v>
       </c>
       <c r="E85" t="n">
-        <v>0.3545982755248744</v>
+        <v>0.354844602325362</v>
       </c>
       <c r="F85" t="inlineStr">
         <is>
@@ -3805,13 +3805,13 @@
         </is>
       </c>
       <c r="C130" t="n">
-        <v>21.0213121000403</v>
+        <v>21.04987097905213</v>
       </c>
       <c r="D130" t="n">
-        <v>0.7793974190394373</v>
+        <v>0.7806731686661846</v>
       </c>
       <c r="E130" t="n">
-        <v>0.2765401494724529</v>
+        <v>0.2768186957426594</v>
       </c>
       <c r="F130" t="inlineStr">
         <is>
@@ -3831,13 +3831,13 @@
         </is>
       </c>
       <c r="C131" t="n">
-        <v>23.70757455914722</v>
+        <v>23.73602669853241</v>
       </c>
       <c r="D131" t="n">
-        <v>0.8650627391970312</v>
+        <v>0.8663401243914169</v>
       </c>
       <c r="E131" t="n">
-        <v>0.3114282871718717</v>
+        <v>0.3117164906234569</v>
       </c>
       <c r="F131" t="inlineStr">
         <is>
@@ -3857,13 +3857,13 @@
         </is>
       </c>
       <c r="C132" t="n">
-        <v>24.2479657352197</v>
+        <v>24.27636119677014</v>
       </c>
       <c r="D132" t="n">
-        <v>0.881193737212051</v>
+        <v>0.882469846367818</v>
       </c>
       <c r="E132" t="n">
-        <v>0.3189768603780808</v>
+        <v>0.3192651376869636</v>
       </c>
       <c r="F132" t="inlineStr">
         <is>
@@ -3883,13 +3883,13 @@
         </is>
       </c>
       <c r="C133" t="n">
-        <v>27.30291232021607</v>
+        <v>27.33136241830373</v>
       </c>
       <c r="D133" t="n">
-        <v>0.9841272461457049</v>
+        <v>0.9854132406633692</v>
       </c>
       <c r="E133" t="n">
-        <v>0.3548824075027712</v>
+        <v>0.3551947167055764</v>
       </c>
       <c r="F133" t="inlineStr">
         <is>
@@ -5053,13 +5053,13 @@
         </is>
       </c>
       <c r="C178" t="n">
-        <v>21.02915600240668</v>
+        <v>21.02558343229439</v>
       </c>
       <c r="D178" t="n">
-        <v>0.7797100063905408</v>
+        <v>0.7795498029034491</v>
       </c>
       <c r="E178" t="n">
-        <v>0.2765422553977208</v>
+        <v>0.2765092471257591</v>
       </c>
       <c r="F178" t="inlineStr">
         <is>
@@ -5079,13 +5079,13 @@
         </is>
       </c>
       <c r="C179" t="n">
-        <v>23.71161182333783</v>
+        <v>23.70894681622354</v>
       </c>
       <c r="D179" t="n">
-        <v>0.8652278723357847</v>
+        <v>0.8651086097971251</v>
       </c>
       <c r="E179" t="n">
-        <v>0.3114271619436818</v>
+        <v>0.3114048566682167</v>
       </c>
       <c r="F179" t="inlineStr">
         <is>
@@ -5105,13 +5105,13 @@
         </is>
       </c>
       <c r="C180" t="n">
-        <v>24.24871431350601</v>
+        <v>24.24633868837352</v>
       </c>
       <c r="D180" t="n">
-        <v>0.8812193945961736</v>
+        <v>0.8811131044693309</v>
       </c>
       <c r="E180" t="n">
-        <v>0.318950803653731</v>
+        <v>0.3189312629839666</v>
       </c>
       <c r="F180" t="inlineStr">
         <is>
@@ -5131,13 +5131,13 @@
         </is>
       </c>
       <c r="C181" t="n">
-        <v>27.31194635945891</v>
+        <v>27.31006881368785</v>
       </c>
       <c r="D181" t="n">
-        <v>0.9845342746412109</v>
+        <v>0.9844508625962969</v>
       </c>
       <c r="E181" t="n">
-        <v>0.3549703107744522</v>
+        <v>0.3549570606487576</v>
       </c>
       <c r="F181" t="inlineStr">
         <is>

--- a/Modelos em Python/erros_todos.xlsx
+++ b/Modelos em Python/erros_todos.xlsx
@@ -1309,13 +1309,13 @@
         </is>
       </c>
       <c r="C34" t="n">
-        <v>16.64384955730806</v>
+        <v>16.6438258756546</v>
       </c>
       <c r="D34" t="n">
-        <v>0.5974621839563153</v>
+        <v>0.5974567469526338</v>
       </c>
       <c r="E34" t="n">
-        <v>0.1895193421248145</v>
+        <v>0.1895136696824831</v>
       </c>
       <c r="F34" t="inlineStr">
         <is>
@@ -1335,13 +1335,13 @@
         </is>
       </c>
       <c r="C35" t="n">
-        <v>18.18173315053408</v>
+        <v>18.18525780373947</v>
       </c>
       <c r="D35" t="n">
-        <v>0.6365849313358724</v>
+        <v>0.636643955077832</v>
       </c>
       <c r="E35" t="n">
-        <v>0.2047713450640102</v>
+        <v>0.2047983127273373</v>
       </c>
       <c r="F35" t="inlineStr">
         <is>
@@ -1361,13 +1361,13 @@
         </is>
       </c>
       <c r="C36" t="n">
-        <v>18.37523045863365</v>
+        <v>18.3814676852121</v>
       </c>
       <c r="D36" t="n">
-        <v>0.6386618512095427</v>
+        <v>0.6387676680684929</v>
       </c>
       <c r="E36" t="n">
-        <v>0.2064106047387013</v>
+        <v>0.2064630178731778</v>
       </c>
       <c r="F36" t="inlineStr">
         <is>
@@ -1387,13 +1387,13 @@
         </is>
       </c>
       <c r="C37" t="n">
-        <v>20.70356701213879</v>
+        <v>20.70384577313722</v>
       </c>
       <c r="D37" t="n">
-        <v>0.7121208241911026</v>
+        <v>0.7121308206505189</v>
       </c>
       <c r="E37" t="n">
-        <v>0.231180506135086</v>
+        <v>0.231175799918299</v>
       </c>
       <c r="F37" t="inlineStr">
         <is>
@@ -2557,13 +2557,13 @@
         </is>
       </c>
       <c r="C82" t="n">
-        <v>21.01895841504065</v>
+        <v>21.03316691494529</v>
       </c>
       <c r="D82" t="n">
-        <v>0.779265491467886</v>
+        <v>0.7799019051016769</v>
       </c>
       <c r="E82" t="n">
-        <v>0.2764550746538694</v>
+        <v>0.276598653107921</v>
       </c>
       <c r="F82" t="inlineStr">
         <is>
@@ -2583,13 +2583,13 @@
         </is>
       </c>
       <c r="C83" t="n">
-        <v>23.70400312913826</v>
+        <v>23.71862595846822</v>
       </c>
       <c r="D83" t="n">
-        <v>0.8648891305145239</v>
+        <v>0.8655473078242436</v>
       </c>
       <c r="E83" t="n">
-        <v>0.311351899079466</v>
+        <v>0.3115069115375103</v>
       </c>
       <c r="F83" t="inlineStr">
         <is>
@@ -2609,13 +2609,13 @@
         </is>
       </c>
       <c r="C84" t="n">
-        <v>24.2430519551496</v>
+        <v>24.25794323659502</v>
       </c>
       <c r="D84" t="n">
-        <v>0.8809650223812029</v>
+        <v>0.8816359385641436</v>
       </c>
       <c r="E84" t="n">
-        <v>0.31889419824497</v>
+        <v>0.3190530187292639</v>
       </c>
       <c r="F84" t="inlineStr">
         <is>
@@ -2635,13 +2635,13 @@
         </is>
       </c>
       <c r="C85" t="n">
-        <v>27.30210055318548</v>
+        <v>27.31653751934055</v>
       </c>
       <c r="D85" t="n">
-        <v>0.9840847356805736</v>
+        <v>0.9847385990156956</v>
       </c>
       <c r="E85" t="n">
-        <v>0.354844602325362</v>
+        <v>0.3550099177791785</v>
       </c>
       <c r="F85" t="inlineStr">
         <is>
@@ -3805,13 +3805,13 @@
         </is>
       </c>
       <c r="C130" t="n">
-        <v>21.04987097905213</v>
+        <v>21.04063155110538</v>
       </c>
       <c r="D130" t="n">
-        <v>0.7806731686661846</v>
+        <v>0.7802612719443411</v>
       </c>
       <c r="E130" t="n">
-        <v>0.2768186957426594</v>
+        <v>0.2767308352366832</v>
       </c>
       <c r="F130" t="inlineStr">
         <is>
@@ -3831,13 +3831,13 @@
         </is>
       </c>
       <c r="C131" t="n">
-        <v>23.73602669853241</v>
+        <v>23.72659592267785</v>
       </c>
       <c r="D131" t="n">
-        <v>0.8663401243914169</v>
+        <v>0.865916460799298</v>
       </c>
       <c r="E131" t="n">
-        <v>0.3117164906234569</v>
+        <v>0.3116206569051452</v>
       </c>
       <c r="F131" t="inlineStr">
         <is>
@@ -3857,13 +3857,13 @@
         </is>
       </c>
       <c r="C132" t="n">
-        <v>24.27636119677014</v>
+        <v>24.26680218722931</v>
       </c>
       <c r="D132" t="n">
-        <v>0.882469846367818</v>
+        <v>0.8820393632124901</v>
       </c>
       <c r="E132" t="n">
-        <v>0.3192651376869636</v>
+        <v>0.3191663762124701</v>
       </c>
       <c r="F132" t="inlineStr">
         <is>
@@ -3883,13 +3883,13 @@
         </is>
       </c>
       <c r="C133" t="n">
-        <v>27.33136241830373</v>
+        <v>27.32203450138865</v>
       </c>
       <c r="D133" t="n">
-        <v>0.9854132406633692</v>
+        <v>0.984991637860964</v>
       </c>
       <c r="E133" t="n">
-        <v>0.3551947167055764</v>
+        <v>0.3550930059430906</v>
       </c>
       <c r="F133" t="inlineStr">
         <is>
@@ -5053,13 +5053,13 @@
         </is>
       </c>
       <c r="C178" t="n">
-        <v>21.02558343229439</v>
+        <v>21.01799467067769</v>
       </c>
       <c r="D178" t="n">
-        <v>0.7795498029034491</v>
+        <v>0.7792128589107232</v>
       </c>
       <c r="E178" t="n">
-        <v>0.2765092471257591</v>
+        <v>0.2764326624907303</v>
       </c>
       <c r="F178" t="inlineStr">
         <is>
@@ -5079,13 +5079,13 @@
         </is>
       </c>
       <c r="C179" t="n">
-        <v>23.70894681622354</v>
+        <v>23.69951426510422</v>
       </c>
       <c r="D179" t="n">
-        <v>0.8651086097971251</v>
+        <v>0.8646844595460164</v>
       </c>
       <c r="E179" t="n">
-        <v>0.3114048566682167</v>
+        <v>0.3112995913387199</v>
       </c>
       <c r="F179" t="inlineStr">
         <is>
@@ -5105,13 +5105,13 @@
         </is>
       </c>
       <c r="C180" t="n">
-        <v>24.24633868837352</v>
+        <v>24.23637176884694</v>
       </c>
       <c r="D180" t="n">
-        <v>0.8811131044693309</v>
+        <v>0.8806640724337109</v>
       </c>
       <c r="E180" t="n">
-        <v>0.3189312629839666</v>
+        <v>0.318820128575201</v>
       </c>
       <c r="F180" t="inlineStr">
         <is>
@@ -5131,13 +5131,13 @@
         </is>
       </c>
       <c r="C181" t="n">
-        <v>27.31006881368785</v>
+        <v>27.29882232917956</v>
       </c>
       <c r="D181" t="n">
-        <v>0.9844508625962969</v>
+        <v>0.9839393486147793</v>
       </c>
       <c r="E181" t="n">
-        <v>0.3549570606487576</v>
+        <v>0.3548180684987735</v>
       </c>
       <c r="F181" t="inlineStr">
         <is>
